--- a/Geco/PolylanFS19/Turniere/PolylanTournamentTimesheet.xlsx
+++ b/Geco/PolylanFS19/Turniere/PolylanTournamentTimesheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oliver Swageritis\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ohlidd/Documents/GitHub/Privat/Geco/PolylanFS19/Turniere/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D620257-A59B-4162-8A8D-92C0CEF862FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAED8E83-680E-D348-9ADA-7799E545302D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{16E5E418-C12A-4318-A2D5-3F77F9891E89}"/>
+    <workbookView xWindow="14660" yWindow="460" windowWidth="14140" windowHeight="16820" xr2:uid="{16E5E418-C12A-4318-A2D5-3F77F9891E89}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -228,10 +228,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Gut" xfId="1" builtinId="26"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
-    <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -247,7 +247,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -545,20 +545,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3ACDA1-A86D-4E5D-A272-6008D2445646}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="2" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -578,7 +578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0.66666666666666663</v>
       </c>
@@ -594,98 +594,101 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0.6875</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0.70833333333333337</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>0.77083333333333337</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0.79166666666666663</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>0.8125</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>0.83333333333333337</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>0.85416666666666663</v>
       </c>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>0.875</v>
       </c>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>0.89583333333333337</v>
       </c>
@@ -693,36 +696,35 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>0.91666666666666663</v>
       </c>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>0.9375</v>
       </c>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>0.97916666666666663</v>
       </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>0</v>
       </c>
+      <c r="C18" s="4"/>
       <c r="G18" s="4" t="s">
         <v>17</v>
       </c>
@@ -730,43 +732,47 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>2.0833333333333332E-2</v>
       </c>
+      <c r="D19" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
+      <c r="D20" s="4"/>
       <c r="F20" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>6.25E-2</v>
       </c>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>0.125</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>0.5</v>
       </c>
@@ -774,25 +780,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>0.52083333333333337</v>
       </c>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>0.54166666666666663</v>
       </c>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>0.5625</v>
       </c>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -800,13 +806,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>0.60416666666666663</v>
       </c>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>0.625</v>
       </c>
@@ -814,19 +820,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>0.64583333333333337</v>
       </c>
       <c r="B33" s="4"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>0.66666666666666663</v>
       </c>
       <c r="B34" s="4"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>0.6875</v>
       </c>
@@ -834,19 +840,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>0.70833333333333337</v>
       </c>
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>0.72916666666666663</v>
       </c>
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>0.75</v>
       </c>
@@ -854,13 +860,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>0.77083333333333337</v>
       </c>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>0.79166666666666663</v>
       </c>
@@ -868,19 +874,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>0.8125</v>
       </c>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>0.83333333333333337</v>
       </c>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>0.85416666666666663</v>
       </c>
@@ -893,7 +899,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>0.875</v>
       </c>
@@ -916,7 +922,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>0.89583333333333337</v>
       </c>
@@ -924,13 +930,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>0.91666666666666663</v>
       </c>
       <c r="B46" s="4"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>0.9375</v>
       </c>
@@ -938,19 +944,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>0.95833333333333337</v>
       </c>
       <c r="C48" s="4"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>0.97916666666666663</v>
       </c>
       <c r="C49" s="4"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>0</v>
       </c>
@@ -959,7 +965,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -973,7 +979,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -981,7 +987,7 @@
       <c r="E52" s="4"/>
       <c r="G52" s="4"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>6.25E-2</v>
       </c>
@@ -989,18 +995,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>0.5</v>
       </c>
@@ -1008,19 +1014,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>0.52083333333333337</v>
       </c>
       <c r="B58" s="4"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>0.54166666666666663</v>
       </c>
       <c r="B59" s="4"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>0.5625</v>
       </c>
@@ -1029,13 +1035,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>0.58333333333333337</v>
       </c>
       <c r="C61" s="4"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>0.60416666666666663</v>
       </c>
@@ -1044,14 +1050,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>0.625</v>
       </c>
       <c r="C63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>0.64583333333333337</v>
       </c>
@@ -1059,7 +1065,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>0.66666666666666663</v>
       </c>
@@ -1068,14 +1074,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>0.6875</v>
       </c>
       <c r="B66" s="4"/>
       <c r="G66" s="4"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -1084,19 +1090,19 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>0.72916666666666663</v>
       </c>
       <c r="E68" s="4"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>0.75</v>
       </c>
       <c r="E69" s="4"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>0.77083333333333337</v>
       </c>
@@ -1104,13 +1110,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>0.79166666666666663</v>
       </c>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>0.8125</v>
       </c>
@@ -1118,25 +1124,25 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>0.83333333333333337</v>
       </c>
       <c r="C73" s="4"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>0.85416666666666663</v>
       </c>
       <c r="C74" s="4"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>0.875</v>
       </c>
       <c r="C75" s="4"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>0.89583333333333337</v>
       </c>
@@ -1144,25 +1150,25 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>0.91666666666666663</v>
       </c>
       <c r="B77" s="4"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>0.9375</v>
       </c>
       <c r="B78" s="4"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>0.95833333333333337</v>
       </c>
       <c r="B79" s="4"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>0.97916666666666663</v>
       </c>
@@ -1170,7 +1176,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>0</v>
       </c>
@@ -1179,7 +1185,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -1192,70 +1198,70 @@
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>0.4375</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>0.47916666666666669</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>0.5625</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>0.60416666666666663</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>0.625</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>0.64583333333333337</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>0.66666666666666663</v>
       </c>

--- a/Geco/PolylanFS19/Turniere/PolylanTournamentTimesheet.xlsx
+++ b/Geco/PolylanFS19/Turniere/PolylanTournamentTimesheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ohlidd/Documents/GitHub/Privat/Geco/PolylanFS19/Turniere/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oliver Swageritis\Desktop\Privat\Geco\PolylanFS19\Turniere\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAED8E83-680E-D348-9ADA-7799E545302D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E3195E-1B11-4AB2-BAF1-C76DE7CDCBDE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14660" yWindow="460" windowWidth="14140" windowHeight="16820" xr2:uid="{16E5E418-C12A-4318-A2D5-3F77F9891E89}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16E5E418-C12A-4318-A2D5-3F77F9891E89}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t>LoL</t>
   </si>
@@ -60,25 +60,7 @@
     <t>Ende Signup</t>
   </si>
   <si>
-    <t>Briefing 19:10</t>
-  </si>
-  <si>
     <t>Briefing 21:10</t>
-  </si>
-  <si>
-    <t>Briefing 19:20</t>
-  </si>
-  <si>
-    <t>Briefing 19:30</t>
-  </si>
-  <si>
-    <t>Briefing 19:40</t>
-  </si>
-  <si>
-    <t>Briefing 19:50</t>
-  </si>
-  <si>
-    <t>Briefing 19:00</t>
   </si>
   <si>
     <t>Priotrity</t>
@@ -219,19 +201,20 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Gut" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -247,7 +230,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -546,19 +529,19 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="15.83203125" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="2" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -578,12 +561,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0.66666666666666663</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -594,12 +577,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.6875</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -622,651 +605,631 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.72916666666666663</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="6">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.74305555555555547</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.75</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.77083333333333337</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0.79166666666666663</v>
       </c>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0.8125</v>
       </c>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0.83333333333333337</v>
       </c>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0.85416666666666663</v>
       </c>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.875</v>
       </c>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C12" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0.89583333333333337</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0.91666666666666663</v>
       </c>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0.9375</v>
       </c>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0.95833333333333337</v>
       </c>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0.97916666666666663</v>
       </c>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="G18" s="4" t="s">
-        <v>17</v>
+      <c r="D18" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="H18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="F20" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E20" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>6.25E-2</v>
       </c>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0.10416666666666667</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0.125</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G24" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>0.5</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>0.52083333333333337</v>
       </c>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F27" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0.54166666666666663</v>
       </c>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0.5625</v>
       </c>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>0.60416666666666663</v>
       </c>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>0.625</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>0.64583333333333337</v>
       </c>
       <c r="B33" s="4"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="B34" s="4"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B34" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>0.6875</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C36" s="4"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>0.72916666666666663</v>
       </c>
-      <c r="C37" s="4"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>0.75</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C38" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>0.77083333333333337</v>
       </c>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>0.79166666666666663</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>0.8125</v>
       </c>
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>0.83333333333333337</v>
       </c>
-      <c r="G42" s="5"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C42" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>0.85416666666666663</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>0.875</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C44" s="4"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>0.89583333333333337</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>0.91666666666666663</v>
       </c>
-      <c r="B46" s="4"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F46" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>0.9375</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>0.95833333333333337</v>
       </c>
-      <c r="C48" s="4"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F48" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>0.97916666666666663</v>
       </c>
-      <c r="C49" s="4"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>0</v>
       </c>
-      <c r="C50" s="4"/>
+      <c r="D50" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="H50" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="G52" s="4"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E52" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>6.25E-2</v>
       </c>
-      <c r="F53" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F54" s="4"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>0.5</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G57" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>0.52083333333333337</v>
       </c>
-      <c r="B58" s="4"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G58" s="4"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B59" s="4"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B59" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>0.5625</v>
       </c>
       <c r="B60" s="4"/>
-      <c r="C60" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C61" s="4"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B61" s="4"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>0.60416666666666663</v>
       </c>
-      <c r="C62" s="4"/>
-      <c r="F62" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B62" s="4"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>0.625</v>
       </c>
-      <c r="C63" s="4"/>
-      <c r="F63" s="4"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G64" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="G65" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G65" s="4"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>0.6875</v>
       </c>
-      <c r="B66" s="4"/>
-      <c r="G66" s="4"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F66" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B67" s="4"/>
-      <c r="E67" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>0.72916666666666663</v>
       </c>
-      <c r="E68" s="4"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E68" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>0.75</v>
       </c>
       <c r="E69" s="4"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>0.77083333333333337</v>
       </c>
-      <c r="F70" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E70" s="4"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F71" s="4"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C71" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>0.8125</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C72" s="4"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>0.83333333333333337</v>
       </c>
       <c r="C73" s="4"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>0.85416666666666663</v>
       </c>
       <c r="C74" s="4"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>0.875</v>
       </c>
-      <c r="C75" s="4"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B75" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>0.89583333333333337</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B76" s="4"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>0.91666666666666663</v>
       </c>
       <c r="B77" s="4"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>0.9375</v>
       </c>
       <c r="B78" s="4"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>0.95833333333333337</v>
       </c>
-      <c r="B79" s="4"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D79" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>0.97916666666666663</v>
       </c>
-      <c r="D80" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D80" s="4"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>0</v>
       </c>
-      <c r="D81" s="4"/>
       <c r="H81" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>0.4375</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>0.47916666666666669</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B88" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>0.5625</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>0.60416666666666663</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>0.625</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>0.64583333333333337</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>0.66666666666666663</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
